--- a/output/bivariate/anthro/stunting_ch_bivariate_diff.xlsx
+++ b/output/bivariate/anthro/stunting_ch_bivariate_diff.xlsx
@@ -1,43 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://a3di2022-my.sharepoint.com/personal/aaron_a3di2022_onmicrosoft_com/Documents/Alive &amp; Thrive/4_Country_III/output/bivariate/anthro/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F224A6F62DBEC1F8B891CDD56B9AE5CA351E5B53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AD2E376-4C87-4330-930D-8532E22CC51B}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sex_ch_weighted" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="residence_weighted" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="region_weighted" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mother_edu_biv_weighted" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="wealth_q_weighted" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="elderly_hoh_weighted" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="sex_hoh_weighted" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sex_ch_weighted" sheetId="1" r:id="rId1"/>
+    <sheet name="residence_weighted" sheetId="2" r:id="rId2"/>
+    <sheet name="region_weighted" sheetId="3" r:id="rId3"/>
+    <sheet name="mother_edu_biv_weighted" sheetId="4" r:id="rId4"/>
+    <sheet name="wealth_q_weighted" sheetId="5" r:id="rId5"/>
+    <sheet name="elderly_hoh_weighted" sheetId="6" r:id="rId6"/>
+    <sheet name="sex_hoh_weighted" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>sex_ch</t>
+  </si>
+  <si>
+    <t>CH Sex: Female</t>
+  </si>
+  <si>
+    <t>CH Sex: Male</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Coastal</t>
+  </si>
+  <si>
+    <t>Great Lake</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>mother_edu_biv</t>
+  </si>
+  <si>
+    <t>None_Primary</t>
+  </si>
+  <si>
+    <t>Secondary_Higher</t>
+  </si>
+  <si>
+    <t>wealth_q</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Poorest</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Richest</t>
+  </si>
+  <si>
+    <t>elderly_hoh</t>
+  </si>
+  <si>
+    <t>Elderly HoH: NO</t>
+  </si>
+  <si>
+    <t>Elderly HoH: YES</t>
+  </si>
+  <si>
+    <t>sex_hoh</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,93 +160,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,74 +485,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sex_ch</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2005</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>CH Sex: Female</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>49.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>40</v>
       </c>
-      <c r="D2" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E2">
         <v>31.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>CH Sex: Male</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>45.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>41.6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>32.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <f>B2-B3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
+        <v>-5.5</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.3999999999999986</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4-B4</f>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -502,74 +573,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>residence</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2005</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>51</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>43.8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>42.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E2">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>42.4</v>
       </c>
-      <c r="C3" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D3">
         <v>27.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>23.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <f>B2-B3</f>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
+        <v>8.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>14.700000000000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10.099999999999998</v>
+      </c>
+      <c r="F4">
+        <f>E4-B4</f>
+        <v>1.4999999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -578,131 +661,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2005</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Coastal</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>49.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>38.6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>42.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>28.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Great Lake</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>47.9</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>49.6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>40.6</v>
       </c>
-      <c r="E3" t="n">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Phnom Penh</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="E3">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>31</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>26.3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>25.1</v>
       </c>
-      <c r="E4" t="n">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Plain</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E4">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>53.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D5">
         <v>39.1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Plateau</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>52.1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>45.5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>47.4</v>
       </c>
-      <c r="E6" t="n">
-        <v>40.2</v>
+      <c r="E6">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <f>B5-B4</f>
+        <v>22.299999999999997</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:E7" si="0">C5-C4</f>
+        <v>13.499999999999996</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7-B7</f>
+        <v>-8.1999999999999957</v>
       </c>
     </row>
   </sheetData>
@@ -711,74 +800,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>mother_edu_biv</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2005</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>None_Primary</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>50.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>46</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>42.6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>35</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Secondary_Higher</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>39.1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>25.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>30.7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>25.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <f>B2-B3</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
+        <v>20.2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>11.900000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4-B4</f>
+        <v>-2.2999999999999972</v>
       </c>
     </row>
   </sheetData>
@@ -787,131 +888,137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>wealth_q</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2005</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
         <v>47.9</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>44.1</v>
       </c>
-      <c r="D2" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E2">
         <v>31.7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
         <v>53</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>48.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>44.4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>37.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Poorest</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>58</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>52.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>51.1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>41.9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Rich</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
         <v>48.6</v>
       </c>
-      <c r="C5" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D5">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E5">
         <v>29.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Richest</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C6">
         <v>24.4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>23.1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>18.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <f>B4-B6</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:E7" si="0">C4-C6</f>
+        <v>27.700000000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>23.4</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7-B7</f>
+        <v>-1.8000000000000043</v>
       </c>
     </row>
   </sheetData>
@@ -920,74 +1027,86 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>elderly_hoh</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2005</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Elderly HoH: NO</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
         <v>49.7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>43.2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>40.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>32.6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Elderly HoH: YES</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
         <v>50.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D3">
         <v>33.4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>31.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <f>B3-B2</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" si="0">C3-C2</f>
+        <v>-5.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="F4">
+        <f>E4-B4</f>
+        <v>-2.0999999999999979</v>
       </c>
     </row>
   </sheetData>
@@ -996,74 +1115,86 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sex_hoh</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2005</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
         <v>47.5</v>
       </c>
-      <c r="C2" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D2">
         <v>38.4</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>31.3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
         <v>50.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>43</v>
       </c>
-      <c r="D3" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>32.8</v>
+      <c r="D3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E3">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <f>B2-B3</f>
+        <v>-2.7000000000000028</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-1.8999999999999986</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-1.4999999999999964</v>
+      </c>
+      <c r="F4">
+        <f>E4-B4</f>
+        <v>1.2000000000000064</v>
       </c>
     </row>
   </sheetData>
